--- a/iteration2/bias_analysis_results.xlsx
+++ b/iteration2/bias_analysis_results.xlsx
@@ -12139,7 +12139,7 @@
   <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
